--- a/KeyBook.xlsx
+++ b/KeyBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcox/Dropbox/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Matching/KaggleWebscrapingAnalysis/Notebooks and Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303A99D-5249-FE44-92E0-63763C9198EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF5948-4C23-0443-9487-FCC0C2746E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28040" yWindow="-1240" windowWidth="28040" windowHeight="17040" xr2:uid="{77A6CD6F-12DF-7148-A253-8FE097793938}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>ab_id</t>
   </si>
@@ -296,12 +296,15 @@
   <si>
     <t>col_description</t>
   </si>
+  <si>
+    <t>https://www.kaggle.com/pschale/mlb-pitch-data-20152018/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -319,6 +322,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -339,14 +356,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,29 +679,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2AF305-1CA4-EE4F-8910-A13568AD5022}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="3" max="3" width="64.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -705,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,7 +745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -737,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -753,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -761,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -769,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -777,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -785,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -793,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1035,6 +1059,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{16D3D813-1BDF-9945-A02B-8F0D0054ECD5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>